--- a/data/cars/乘用车中观数据库.xlsx
+++ b/data/cars/乘用车中观数据库.xlsx
@@ -613,7 +613,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/cars/乘用车中观数据库.xlsx
+++ b/data/cars/乘用车中观数据库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,26 @@
   </si>
   <si>
     <t>S0255580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新能源汽车销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S6125073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新能源汽车产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S6125076</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -958,6 +978,28 @@
         <v>36</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
